--- a/biology/Médecine/Anticorps_antinucléaire/Anticorps_antinucléaire.xlsx
+++ b/biology/Médecine/Anticorps_antinucléaire/Anticorps_antinucléaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anticorps_antinucl%C3%A9aire</t>
+          <t>Anticorps_antinucléaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les anticorps antinucléaires (ACAN ou AAN) ou facteurs antinucléaires (FAN) (en anglais, anti-nuclear antibody ou ANA) sont des auto-anticorps non spécifiques d'organes, dirigés contre différents éléments du noyau de leurs propres cellules : constituants du noyau cellulaire mais aussi éléments nucléo-protéiques cytoplasmiques issus du noyau. Ils sont présents dans certaines maladies autoimmunes et ont un intérêt dans le diagnostic et le suivi de ces affections[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les anticorps antinucléaires (ACAN ou AAN) ou facteurs antinucléaires (FAN) (en anglais, anti-nuclear antibody ou ANA) sont des auto-anticorps non spécifiques d'organes, dirigés contre différents éléments du noyau de leurs propres cellules : constituants du noyau cellulaire mais aussi éléments nucléo-protéiques cytoplasmiques issus du noyau. Ils sont présents dans certaines maladies autoimmunes et ont un intérêt dans le diagnostic et le suivi de ces affections.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anticorps_antinucl%C3%A9aire</t>
+          <t>Anticorps_antinucléaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Utilisation médicale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On les retrouve dans des maladies telles que le lupus érythémateux disséminé ou le lupus médicamenteux, le syndrome de Goujerot-Sjögren, la sclérodermie systémique, la polymyosite ou le syndrome de Sharp[2], ou lors de la prise de certains médicaments (hydralazine, procaïnamide[3]). Ils sont également présents chez les personnes non-atteintes d'une affection auto-immune, mais à de faibles concentrations[4].
-Dans le diagnostic du lupus, la recherche d'anticorps antinucléaire est un test avec une bonne sensibilité mais avec une spécificité modérée[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On les retrouve dans des maladies telles que le lupus érythémateux disséminé ou le lupus médicamenteux, le syndrome de Goujerot-Sjögren, la sclérodermie systémique, la polymyosite ou le syndrome de Sharp, ou lors de la prise de certains médicaments (hydralazine, procaïnamide). Ils sont également présents chez les personnes non-atteintes d'une affection auto-immune, mais à de faibles concentrations.
+Dans le diagnostic du lupus, la recherche d'anticorps antinucléaire est un test avec une bonne sensibilité mais avec une spécificité modérée.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anticorps_antinucl%C3%A9aire</t>
+          <t>Anticorps_antinucléaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils ont été découverts en 1943 par l’hématologiste Malcolm Hargraves qui remarqua dans la moelle sternale d'un malade certaines cellules qui avaient phagocyté le noyau d'autres cellules[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils ont été découverts en 1943 par l’hématologiste Malcolm Hargraves qui remarqua dans la moelle sternale d'un malade certaines cellules qui avaient phagocyté le noyau d'autres cellules.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anticorps_antinucl%C3%A9aire</t>
+          <t>Anticorps_antinucléaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Anticorps antinoyaux
 Anticorps antinucléaire
